--- a/Code/Results/Cases/Case_9_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016432236381935</v>
+        <v>1.015514424136348</v>
       </c>
       <c r="D2">
-        <v>1.03451853504167</v>
+        <v>1.032835676880434</v>
       </c>
       <c r="E2">
-        <v>1.029775295429244</v>
+        <v>1.029035379582845</v>
       </c>
       <c r="F2">
-        <v>1.038658277386536</v>
+        <v>1.03803467036676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0547590474157</v>
+        <v>1.053899248559573</v>
       </c>
       <c r="J2">
-        <v>1.038132329408044</v>
+        <v>1.03724080045406</v>
       </c>
       <c r="K2">
-        <v>1.045517039354066</v>
+        <v>1.043855754408546</v>
       </c>
       <c r="L2">
-        <v>1.040834831293917</v>
+        <v>1.040104499479872</v>
       </c>
       <c r="M2">
-        <v>1.049604084139862</v>
+        <v>1.048988381859066</v>
       </c>
       <c r="N2">
-        <v>1.01654061394688</v>
+        <v>1.01702731309573</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047830659113414</v>
+        <v>1.04734337676966</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043254765747879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042088829185901</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023694933954469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019714885955334</v>
+        <v>1.018685404260461</v>
       </c>
       <c r="D3">
-        <v>1.036748554623344</v>
+        <v>1.034903043240073</v>
       </c>
       <c r="E3">
-        <v>1.032325001113082</v>
+        <v>1.031492850732081</v>
       </c>
       <c r="F3">
-        <v>1.041183210616064</v>
+        <v>1.04048489068927</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055632033712379</v>
+        <v>1.054682113243106</v>
       </c>
       <c r="J3">
-        <v>1.039682160152056</v>
+        <v>1.038679330460553</v>
       </c>
       <c r="K3">
-        <v>1.04693186891496</v>
+        <v>1.04510799188652</v>
       </c>
       <c r="L3">
-        <v>1.042560331728331</v>
+        <v>1.041738028321064</v>
       </c>
       <c r="M3">
-        <v>1.051314926333639</v>
+        <v>1.050624695511069</v>
       </c>
       <c r="N3">
-        <v>1.017063047905909</v>
+        <v>1.017411816422963</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049184661176122</v>
+        <v>1.048638396037041</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04425251155914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042971335170674</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023930515820944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021805117411598</v>
+        <v>1.020705093760285</v>
       </c>
       <c r="D4">
-        <v>1.038171699313203</v>
+        <v>1.036223001321733</v>
       </c>
       <c r="E4">
-        <v>1.033954194725382</v>
+        <v>1.033063730070075</v>
       </c>
       <c r="F4">
-        <v>1.042797554806258</v>
+        <v>1.042051997357926</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056179240198303</v>
+        <v>1.055172056576</v>
       </c>
       <c r="J4">
-        <v>1.040667027395827</v>
+        <v>1.039593591294854</v>
       </c>
       <c r="K4">
-        <v>1.047830260197106</v>
+        <v>1.045903052213284</v>
       </c>
       <c r="L4">
-        <v>1.043659391265503</v>
+        <v>1.042778832943378</v>
       </c>
       <c r="M4">
-        <v>1.052405497061703</v>
+        <v>1.051668060619706</v>
       </c>
       <c r="N4">
-        <v>1.01739510561352</v>
+        <v>1.017656281867275</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050047764049554</v>
+        <v>1.04946413991929</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044888632443637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043534477059998</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024077797256965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022678639392615</v>
+        <v>1.021549221267841</v>
       </c>
       <c r="D5">
-        <v>1.038769348999881</v>
+        <v>1.036777635326173</v>
       </c>
       <c r="E5">
-        <v>1.03463657833277</v>
+        <v>1.033721798536878</v>
       </c>
       <c r="F5">
-        <v>1.043473490360611</v>
+        <v>1.042708239676712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056407261367711</v>
+        <v>1.055376169865328</v>
       </c>
       <c r="J5">
-        <v>1.041079471171225</v>
+        <v>1.039976550397158</v>
       </c>
       <c r="K5">
-        <v>1.048207888718318</v>
+        <v>1.046237564357952</v>
       </c>
       <c r="L5">
-        <v>1.044119613121115</v>
+        <v>1.043214741197747</v>
       </c>
       <c r="M5">
-        <v>1.052861908294163</v>
+        <v>1.052104773524917</v>
       </c>
       <c r="N5">
-        <v>1.017534522472659</v>
+        <v>1.017758960895893</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05040897814846</v>
+        <v>1.049809764593705</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045162764814758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043778836274429</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024139709351899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0228281201125</v>
+        <v>1.021693627070623</v>
       </c>
       <c r="D6">
-        <v>1.038874299971572</v>
+        <v>1.036875251839426</v>
       </c>
       <c r="E6">
-        <v>1.034753667060542</v>
+        <v>1.033834681176094</v>
       </c>
       <c r="F6">
-        <v>1.043588925767647</v>
+        <v>1.042820273593117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056447921721455</v>
+        <v>1.055412734322698</v>
       </c>
       <c r="J6">
-        <v>1.041151671278345</v>
+        <v>1.040043660297234</v>
       </c>
       <c r="K6">
-        <v>1.048275881534126</v>
+        <v>1.046298204730299</v>
       </c>
       <c r="L6">
-        <v>1.044199411989205</v>
+        <v>1.043290334302976</v>
       </c>
       <c r="M6">
-        <v>1.052940501034336</v>
+        <v>1.052179963934196</v>
       </c>
       <c r="N6">
-        <v>1.017559344515405</v>
+        <v>1.017777267704733</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050471178190344</v>
+        <v>1.049869272003156</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045219524745769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043831268499733</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024151510200566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021825593870721</v>
+        <v>1.020731191071029</v>
       </c>
       <c r="D7">
-        <v>1.038192744138066</v>
+        <v>1.036247903298221</v>
       </c>
       <c r="E7">
-        <v>1.033970831377911</v>
+        <v>1.033085038592672</v>
       </c>
       <c r="F7">
-        <v>1.04281252290202</v>
+        <v>1.042070625581701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056189309707055</v>
+        <v>1.055185020771476</v>
       </c>
       <c r="J7">
-        <v>1.040681116914987</v>
+        <v>1.039613154564159</v>
       </c>
       <c r="K7">
-        <v>1.04784821920954</v>
+        <v>1.045924817536245</v>
       </c>
       <c r="L7">
-        <v>1.043672973222719</v>
+        <v>1.042797031068937</v>
       </c>
       <c r="M7">
-        <v>1.052417464797444</v>
+        <v>1.051683645610222</v>
       </c>
       <c r="N7">
-        <v>1.017400997497472</v>
+        <v>1.017688183762532</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050057235586608</v>
+        <v>1.049476474243313</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044921304287414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04357184386647</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024084084364066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017559632020688</v>
+        <v>1.016622919978553</v>
       </c>
       <c r="D8">
-        <v>1.03529236545687</v>
+        <v>1.033568350351266</v>
       </c>
       <c r="E8">
-        <v>1.030650636786409</v>
+        <v>1.029895275789211</v>
       </c>
       <c r="F8">
-        <v>1.039523009337583</v>
+        <v>1.038886473970488</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055066372055145</v>
+        <v>1.054186175234989</v>
       </c>
       <c r="J8">
-        <v>1.038670445424538</v>
+        <v>1.037759674745791</v>
       </c>
       <c r="K8">
-        <v>1.046014593064157</v>
+        <v>1.044312033222433</v>
       </c>
       <c r="L8">
-        <v>1.04143083435161</v>
+        <v>1.040684968622355</v>
       </c>
       <c r="M8">
-        <v>1.050192962094056</v>
+        <v>1.049564258051542</v>
       </c>
       <c r="N8">
-        <v>1.016723464545363</v>
+        <v>1.017245549190944</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048296711707127</v>
+        <v>1.047799139750425</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043629330518144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04243648233306</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023785122814544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009759477704257</v>
+        <v>1.009094643225701</v>
       </c>
       <c r="D9">
-        <v>1.030004468213822</v>
+        <v>1.028671306971976</v>
       </c>
       <c r="E9">
-        <v>1.024624661671858</v>
+        <v>1.024093562471948</v>
       </c>
       <c r="F9">
-        <v>1.03356298174564</v>
+        <v>1.033108034808566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052938688265476</v>
+        <v>1.052274882049281</v>
       </c>
       <c r="J9">
-        <v>1.034972248987095</v>
+        <v>1.034330283797129</v>
       </c>
       <c r="K9">
-        <v>1.042628803082621</v>
+        <v>1.041315729615374</v>
       </c>
       <c r="L9">
-        <v>1.037330466437437</v>
+        <v>1.036807469213689</v>
       </c>
       <c r="M9">
-        <v>1.046134020495936</v>
+        <v>1.045685861295528</v>
       </c>
       <c r="N9">
-        <v>1.015475973275709</v>
+        <v>1.0163379716909</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045084358850564</v>
+        <v>1.044729673042918</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041232229028547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040314485547314</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023207054418715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004416556014892</v>
+        <v>1.003967942631815</v>
       </c>
       <c r="D10">
-        <v>1.026410334133423</v>
+        <v>1.025366356911876</v>
       </c>
       <c r="E10">
-        <v>1.02056351396537</v>
+        <v>1.020210410075447</v>
       </c>
       <c r="F10">
-        <v>1.029598342368694</v>
+        <v>1.029287118153656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051457444097923</v>
+        <v>1.050956545685376</v>
       </c>
       <c r="J10">
-        <v>1.032456033918005</v>
+        <v>1.032025010017547</v>
       </c>
       <c r="K10">
-        <v>1.04031857104401</v>
+        <v>1.039292235655873</v>
       </c>
       <c r="L10">
-        <v>1.034571155241973</v>
+        <v>1.034224101774846</v>
       </c>
       <c r="M10">
-        <v>1.043452991562388</v>
+        <v>1.043146979916009</v>
       </c>
       <c r="N10">
-        <v>1.014632711387824</v>
+        <v>1.015842408660546</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043013671367221</v>
+        <v>1.04277149940452</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039615484528072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038902159730737</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022812160498461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002460402107487</v>
+        <v>1.002119779952265</v>
       </c>
       <c r="D11">
-        <v>1.025155069517897</v>
+        <v>1.024234469755847</v>
       </c>
       <c r="E11">
-        <v>1.019353841592777</v>
+        <v>1.019087863252294</v>
       </c>
       <c r="F11">
-        <v>1.028795641223828</v>
+        <v>1.028555407030231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051052451978589</v>
+        <v>1.050625439669003</v>
       </c>
       <c r="J11">
-        <v>1.031731182478906</v>
+        <v>1.031404638721154</v>
       </c>
       <c r="K11">
-        <v>1.039617694274276</v>
+        <v>1.038713387266468</v>
       </c>
       <c r="L11">
-        <v>1.033919774974406</v>
+        <v>1.033658569829908</v>
       </c>
       <c r="M11">
-        <v>1.043194205305115</v>
+        <v>1.042958180243289</v>
       </c>
       <c r="N11">
-        <v>1.014430292227523</v>
+        <v>1.01593331821139</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04324269470567</v>
+        <v>1.043056001779701</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039152599535464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03852877355964</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022733821803466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001867558208718</v>
+        <v>1.001559139934993</v>
       </c>
       <c r="D12">
-        <v>1.024791684542613</v>
+        <v>1.023906276512171</v>
       </c>
       <c r="E12">
-        <v>1.019103454618988</v>
+        <v>1.018862174862264</v>
       </c>
       <c r="F12">
-        <v>1.028830314683373</v>
+        <v>1.028610906575605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050986729234679</v>
+        <v>1.050581443360406</v>
       </c>
       <c r="J12">
-        <v>1.031593089383167</v>
+        <v>1.031297660423891</v>
       </c>
       <c r="K12">
-        <v>1.039458844536303</v>
+        <v>1.038589367764999</v>
       </c>
       <c r="L12">
-        <v>1.033873591464917</v>
+        <v>1.033636712804332</v>
       </c>
       <c r="M12">
-        <v>1.043425258479461</v>
+        <v>1.043209754779366</v>
       </c>
       <c r="N12">
-        <v>1.014415072813494</v>
+        <v>1.016027169864278</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04375016953959</v>
+        <v>1.043579765874469</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039040288802969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038441090356854</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022732959253568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002295846951878</v>
+        <v>1.001954231487669</v>
       </c>
       <c r="D13">
-        <v>1.025105952303871</v>
+        <v>1.024183217995081</v>
       </c>
       <c r="E13">
-        <v>1.019586068658111</v>
+        <v>1.019315805730524</v>
       </c>
       <c r="F13">
-        <v>1.029531320107907</v>
+        <v>1.029289801264744</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051191353839309</v>
+        <v>1.050764227825434</v>
       </c>
       <c r="J13">
-        <v>1.031911092364965</v>
+        <v>1.031583794979312</v>
       </c>
       <c r="K13">
-        <v>1.039724991856881</v>
+        <v>1.038818792617527</v>
       </c>
       <c r="L13">
-        <v>1.034304602732625</v>
+        <v>1.034039247227005</v>
       </c>
       <c r="M13">
-        <v>1.044071592987747</v>
+        <v>1.043834350247201</v>
       </c>
       <c r="N13">
-        <v>1.014549130240236</v>
+        <v>1.016098871612044</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044536593655579</v>
+        <v>1.044349047161092</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039225982922447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038600574808747</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022796609281734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00305839852556</v>
+        <v>1.002664587218519</v>
       </c>
       <c r="D14">
-        <v>1.025634344792579</v>
+        <v>1.024653154745085</v>
       </c>
       <c r="E14">
-        <v>1.020254669013344</v>
+        <v>1.019940569577939</v>
       </c>
       <c r="F14">
-        <v>1.03032227220767</v>
+        <v>1.030046386263231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051457027932697</v>
+        <v>1.050995218445697</v>
       </c>
       <c r="J14">
-        <v>1.032339968795769</v>
+        <v>1.031962431127216</v>
       </c>
       <c r="K14">
-        <v>1.040104859443495</v>
+        <v>1.039141037357862</v>
       </c>
       <c r="L14">
-        <v>1.034820942118068</v>
+        <v>1.034512474212237</v>
       </c>
       <c r="M14">
-        <v>1.04471039761151</v>
+        <v>1.044439333398215</v>
       </c>
       <c r="N14">
-        <v>1.014710555682625</v>
+        <v>1.016140360392467</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045214156069863</v>
+        <v>1.04499990155373</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03949597553474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038829961086149</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022870954826682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003471560179664</v>
+        <v>1.003051137640462</v>
       </c>
       <c r="D15">
-        <v>1.025917186296962</v>
+        <v>1.024906053445579</v>
       </c>
       <c r="E15">
-        <v>1.020586176306195</v>
+        <v>1.020250072430983</v>
       </c>
       <c r="F15">
-        <v>1.030675734875753</v>
+        <v>1.030382392669207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051585446619</v>
+        <v>1.051105806986637</v>
       </c>
       <c r="J15">
-        <v>1.032550408539609</v>
+        <v>1.032147210085045</v>
       </c>
       <c r="K15">
-        <v>1.040297043444278</v>
+        <v>1.039303674566625</v>
       </c>
       <c r="L15">
-        <v>1.035060205194227</v>
+        <v>1.034730081364645</v>
       </c>
       <c r="M15">
-        <v>1.044972597596362</v>
+        <v>1.044684342914096</v>
       </c>
       <c r="N15">
-        <v>1.014785128336403</v>
+        <v>1.016150642154315</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045458791009567</v>
+        <v>1.045230954771534</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039637692123039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038951357280177</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022905435500179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005649750170553</v>
+        <v>1.005102551180274</v>
       </c>
       <c r="D16">
-        <v>1.027379775978773</v>
+        <v>1.026222310124628</v>
       </c>
       <c r="E16">
-        <v>1.022216626743189</v>
+        <v>1.021777036992666</v>
       </c>
       <c r="F16">
-        <v>1.032250619792806</v>
+        <v>1.031874193632866</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052190052165635</v>
+        <v>1.051623635761272</v>
       </c>
       <c r="J16">
-        <v>1.033564916829777</v>
+        <v>1.033039032982856</v>
       </c>
       <c r="K16">
-        <v>1.041236392344525</v>
+        <v>1.040098384372793</v>
       </c>
       <c r="L16">
-        <v>1.036160478727931</v>
+        <v>1.035728368795136</v>
       </c>
       <c r="M16">
-        <v>1.046025969224559</v>
+        <v>1.045655788273884</v>
       </c>
       <c r="N16">
-        <v>1.015120445802345</v>
+        <v>1.016178726760522</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046252813266359</v>
+        <v>1.04596021430184</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040304987602265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039516688898499</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023058159998215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006923810523463</v>
+        <v>1.00631342290628</v>
       </c>
       <c r="D17">
-        <v>1.028227500256611</v>
+        <v>1.026993354779731</v>
       </c>
       <c r="E17">
-        <v>1.023119041625189</v>
+        <v>1.022628275210527</v>
       </c>
       <c r="F17">
-        <v>1.033040716341315</v>
+        <v>1.032622723943643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052512697217934</v>
+        <v>1.051901385567507</v>
       </c>
       <c r="J17">
-        <v>1.034118492686225</v>
+        <v>1.033531129006737</v>
       </c>
       <c r="K17">
-        <v>1.041758061714811</v>
+        <v>1.040544086393241</v>
       </c>
       <c r="L17">
-        <v>1.036733499624368</v>
+        <v>1.036250849898686</v>
       </c>
       <c r="M17">
-        <v>1.046493204371175</v>
+        <v>1.046081955037321</v>
       </c>
       <c r="N17">
-        <v>1.015293047967319</v>
+        <v>1.016206911793784</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046493638667668</v>
+        <v>1.046168546232465</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04067639685069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039834635021674</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02313699353867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007525895998748</v>
+        <v>1.00689346212023</v>
       </c>
       <c r="D18">
-        <v>1.028607376133722</v>
+        <v>1.02734419619993</v>
       </c>
       <c r="E18">
-        <v>1.023450041633351</v>
+        <v>1.022942103307491</v>
       </c>
       <c r="F18">
-        <v>1.033178363164857</v>
+        <v>1.032745731819756</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052610606014866</v>
+        <v>1.051982473146492</v>
       </c>
       <c r="J18">
-        <v>1.034307568354159</v>
+        <v>1.033698548716704</v>
       </c>
       <c r="K18">
-        <v>1.04194992692542</v>
+        <v>1.040707055056775</v>
       </c>
       <c r="L18">
-        <v>1.036875911804701</v>
+        <v>1.036376237867495</v>
       </c>
       <c r="M18">
-        <v>1.046447958063523</v>
+        <v>1.046022196344546</v>
       </c>
       <c r="N18">
-        <v>1.015333337081854</v>
+        <v>1.016194621725284</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046221311801137</v>
+        <v>1.045884677802233</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040800482788057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039937152778446</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023152350267608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007524312059966</v>
+        <v>1.006901970476124</v>
       </c>
       <c r="D19">
-        <v>1.028576058081079</v>
+        <v>1.027323385650749</v>
       </c>
       <c r="E19">
-        <v>1.023262438868032</v>
+        <v>1.022763940837758</v>
       </c>
       <c r="F19">
-        <v>1.032719277323482</v>
+        <v>1.03229314976365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052512442728577</v>
+        <v>1.051890311619226</v>
       </c>
       <c r="J19">
-        <v>1.034173059015185</v>
+        <v>1.033573623334314</v>
       </c>
       <c r="K19">
-        <v>1.041857111757644</v>
+        <v>1.040624472508212</v>
       </c>
       <c r="L19">
-        <v>1.036628902765242</v>
+        <v>1.036138475973337</v>
       </c>
       <c r="M19">
-        <v>1.045934514446672</v>
+        <v>1.045515124867108</v>
       </c>
       <c r="N19">
-        <v>1.015259097305909</v>
+        <v>1.016129743767398</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045491555154271</v>
+        <v>1.045159852123636</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040741217155332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039885747443691</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02311419959497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005822127846418</v>
+        <v>1.005297965355508</v>
       </c>
       <c r="D20">
-        <v>1.02737152773671</v>
+        <v>1.026238007159619</v>
       </c>
       <c r="E20">
-        <v>1.021633175410268</v>
+        <v>1.021217548109934</v>
       </c>
       <c r="F20">
-        <v>1.030640900818285</v>
+        <v>1.030279622344475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.0518619161839</v>
+        <v>1.051308439835456</v>
       </c>
       <c r="J20">
-        <v>1.033130446505204</v>
+        <v>1.032626175956475</v>
       </c>
       <c r="K20">
-        <v>1.04094957130073</v>
+        <v>1.039834666417004</v>
       </c>
       <c r="L20">
-        <v>1.035306006411001</v>
+        <v>1.034897297828379</v>
       </c>
       <c r="M20">
-        <v>1.044165546459351</v>
+        <v>1.0438101472665</v>
       </c>
       <c r="N20">
-        <v>1.014862198813876</v>
+        <v>1.015906410573614</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043567088639806</v>
+        <v>1.043285828928687</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040103454238265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039331616287662</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022921226432271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001740387328359</v>
+        <v>1.001471695164056</v>
       </c>
       <c r="D21">
-        <v>1.024619180073399</v>
+        <v>1.02377418601204</v>
       </c>
       <c r="E21">
-        <v>1.018490025005697</v>
+        <v>1.018286336145014</v>
       </c>
       <c r="F21">
-        <v>1.027501320750743</v>
+        <v>1.027308995002966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050685465958656</v>
+        <v>1.050304078433859</v>
       </c>
       <c r="J21">
-        <v>1.031165523451208</v>
+        <v>1.030908014014892</v>
       </c>
       <c r="K21">
-        <v>1.039148678238811</v>
+        <v>1.03831872614332</v>
       </c>
       <c r="L21">
-        <v>1.03312936587144</v>
+        <v>1.032929356906545</v>
       </c>
       <c r="M21">
-        <v>1.04197975448381</v>
+        <v>1.04179082470449</v>
       </c>
       <c r="N21">
-        <v>1.014196059561603</v>
+        <v>1.015861658926964</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041796549170929</v>
+        <v>1.04164702417086</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03883337585938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038263336258755</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022622556272669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9991446992256491</v>
+        <v>0.9990369702934712</v>
       </c>
       <c r="D22">
-        <v>1.022870249964958</v>
+        <v>1.022207057388412</v>
       </c>
       <c r="E22">
-        <v>1.016514708359876</v>
+        <v>1.016444640792145</v>
       </c>
       <c r="F22">
-        <v>1.025554598937123</v>
+        <v>1.025468774082819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049933576645753</v>
+        <v>1.049660270639621</v>
       </c>
       <c r="J22">
-        <v>1.029922478128037</v>
+        <v>1.029819489842596</v>
       </c>
       <c r="K22">
-        <v>1.038001861404279</v>
+        <v>1.037351061813236</v>
       </c>
       <c r="L22">
-        <v>1.031765954516465</v>
+        <v>1.031697216780828</v>
       </c>
       <c r="M22">
-        <v>1.040636261846564</v>
+        <v>1.040552028685209</v>
       </c>
       <c r="N22">
-        <v>1.013775670463149</v>
+        <v>1.01582758760899</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040733265953644</v>
+        <v>1.040666601072586</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038009100019497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037564425100638</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022430204164267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000517220581064</v>
+        <v>1.000314358661752</v>
       </c>
       <c r="D23">
-        <v>1.023788617236639</v>
+        <v>1.023021715820494</v>
       </c>
       <c r="E23">
-        <v>1.017557678867101</v>
+        <v>1.017408535233633</v>
       </c>
       <c r="F23">
-        <v>1.026583776635672</v>
+        <v>1.026435070411691</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050328183069475</v>
+        <v>1.049992405576776</v>
       </c>
       <c r="J23">
-        <v>1.030576097906455</v>
+        <v>1.030381905092226</v>
       </c>
       <c r="K23">
-        <v>1.038600849312553</v>
+        <v>1.03784791793837</v>
       </c>
       <c r="L23">
-        <v>1.032484209622697</v>
+        <v>1.032337824207044</v>
       </c>
       <c r="M23">
-        <v>1.04134532119286</v>
+        <v>1.041199302572467</v>
       </c>
       <c r="N23">
-        <v>1.013995490780372</v>
+        <v>1.015801350275654</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041294438485543</v>
+        <v>1.041178874655714</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038423021800785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037905192105633</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022526863625721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005837645428858</v>
+        <v>1.005314190032182</v>
       </c>
       <c r="D24">
-        <v>1.027367496116024</v>
+        <v>1.026234302063443</v>
       </c>
       <c r="E24">
-        <v>1.021617357435734</v>
+        <v>1.02120252976792</v>
       </c>
       <c r="F24">
-        <v>1.030590050174893</v>
+        <v>1.03022925968544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051846210626442</v>
+        <v>1.051292992515069</v>
       </c>
       <c r="J24">
-        <v>1.033112817142007</v>
+        <v>1.032609198112829</v>
       </c>
       <c r="K24">
-        <v>1.040930468918529</v>
+        <v>1.039815861566862</v>
       </c>
       <c r="L24">
-        <v>1.035275193133639</v>
+        <v>1.034867262292132</v>
       </c>
       <c r="M24">
-        <v>1.04410045343862</v>
+        <v>1.043745527524846</v>
       </c>
       <c r="N24">
-        <v>1.014850820257293</v>
+        <v>1.015894095023624</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043474935252103</v>
+        <v>1.043194036287372</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040062697670476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.0392883925291</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022912268637352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011823055653907</v>
+        <v>1.011077505448379</v>
       </c>
       <c r="D25">
-        <v>1.031410785286045</v>
+        <v>1.029967993043712</v>
       </c>
       <c r="E25">
-        <v>1.02621448348089</v>
+        <v>1.02561673119347</v>
       </c>
       <c r="F25">
-        <v>1.03513203952815</v>
+        <v>1.034623319599436</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053516209917208</v>
+        <v>1.052790736501864</v>
       </c>
       <c r="J25">
-        <v>1.035958974442099</v>
+        <v>1.035237733102492</v>
       </c>
       <c r="K25">
-        <v>1.043540300563018</v>
+        <v>1.042118247930969</v>
       </c>
       <c r="L25">
-        <v>1.038419040118626</v>
+        <v>1.037829982000147</v>
       </c>
       <c r="M25">
-        <v>1.047208400710594</v>
+        <v>1.046706918751887</v>
       </c>
       <c r="N25">
-        <v>1.015810696626495</v>
+        <v>1.016549118325622</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045934652899507</v>
+        <v>1.045537766408454</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041905117159782</v>
+        <v>1.040913129949396</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023365651455631</v>
       </c>
     </row>
   </sheetData>
